--- a/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850781194238589</v>
+        <v>1.00222181308617</v>
       </c>
       <c r="D2">
-        <v>1.006339481152694</v>
+        <v>1.020127891071193</v>
       </c>
       <c r="E2">
-        <v>0.9929768163579662</v>
+        <v>1.008340155008171</v>
       </c>
       <c r="F2">
-        <v>0.9611230356577095</v>
+        <v>0.9791948618852112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03839857548887</v>
+        <v>1.044738096699618</v>
       </c>
       <c r="J2">
-        <v>1.007714489386535</v>
+        <v>1.024336272580434</v>
       </c>
       <c r="K2">
-        <v>1.0177111978479</v>
+        <v>1.031313757307559</v>
       </c>
       <c r="L2">
-        <v>1.004534870272327</v>
+        <v>1.019684508296673</v>
       </c>
       <c r="M2">
-        <v>0.9731519408936724</v>
+        <v>0.9909518619216571</v>
       </c>
       <c r="N2">
-        <v>1.009145559547931</v>
+        <v>1.02579094758051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928535977328292</v>
+        <v>1.006862449610855</v>
       </c>
       <c r="D3">
-        <v>1.012335077003203</v>
+        <v>1.02364032654108</v>
       </c>
       <c r="E3">
-        <v>0.9994557075892389</v>
+        <v>1.012054252399569</v>
       </c>
       <c r="F3">
-        <v>0.9718198267284731</v>
+        <v>0.9865070033095511</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041178987536758</v>
+        <v>1.046385853072671</v>
       </c>
       <c r="J3">
-        <v>1.013540995077459</v>
+        <v>1.027167769596819</v>
       </c>
       <c r="K3">
-        <v>1.022812524011569</v>
+        <v>1.033979402899663</v>
       </c>
       <c r="L3">
-        <v>1.010095557478901</v>
+        <v>1.022535185564342</v>
       </c>
       <c r="M3">
-        <v>0.9828264446486971</v>
+        <v>0.9973154912488121</v>
       </c>
       <c r="N3">
-        <v>1.014980339545246</v>
+        <v>1.028626465647437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9977102127722454</v>
+        <v>1.009795824156489</v>
       </c>
       <c r="D4">
-        <v>1.016081304530558</v>
+        <v>1.025861928703194</v>
       </c>
       <c r="E4">
-        <v>1.003508300614574</v>
+        <v>1.014407594852875</v>
       </c>
       <c r="F4">
-        <v>0.9784876579529453</v>
+        <v>0.9911172570109587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042898956531834</v>
+        <v>1.047415321289177</v>
       </c>
       <c r="J4">
-        <v>1.017172673460649</v>
+        <v>1.028952228187178</v>
       </c>
       <c r="K4">
-        <v>1.025989440682967</v>
+        <v>1.03565792981812</v>
       </c>
       <c r="L4">
-        <v>1.013564567154962</v>
+        <v>1.024335187999884</v>
       </c>
       <c r="M4">
-        <v>0.9888528445229309</v>
+        <v>1.001324084506881</v>
       </c>
       <c r="N4">
-        <v>1.0186171753283</v>
+        <v>1.030413458373674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9997128169952444</v>
+        <v>1.011013060642171</v>
       </c>
       <c r="D5">
-        <v>1.017626246839257</v>
+        <v>1.026784089397797</v>
       </c>
       <c r="E5">
-        <v>1.005180671434426</v>
+        <v>1.015385453700806</v>
       </c>
       <c r="F5">
-        <v>0.9812345127602329</v>
+        <v>0.9930278995208132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043604111659059</v>
+        <v>1.04783957858721</v>
       </c>
       <c r="J5">
-        <v>1.018668329384405</v>
+        <v>1.029691413018306</v>
       </c>
       <c r="K5">
-        <v>1.027297106724551</v>
+        <v>1.036352879619987</v>
       </c>
       <c r="L5">
-        <v>1.014993928249529</v>
+        <v>1.025081634114615</v>
       </c>
       <c r="M5">
-        <v>0.9913343872460313</v>
+        <v>1.002984473222188</v>
       </c>
       <c r="N5">
-        <v>1.020114955255021</v>
+        <v>1.031153692932048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000046842394106</v>
+        <v>1.011216523069218</v>
       </c>
       <c r="D6">
-        <v>1.017883944819207</v>
+        <v>1.026938244833737</v>
       </c>
       <c r="E6">
-        <v>1.005459689239292</v>
+        <v>1.015548979967477</v>
       </c>
       <c r="F6">
-        <v>0.9816925400792355</v>
+        <v>0.9933471334332761</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043721487393871</v>
+        <v>1.047910320359143</v>
       </c>
       <c r="J6">
-        <v>1.018917688358684</v>
+        <v>1.029814891982412</v>
       </c>
       <c r="K6">
-        <v>1.02751508111715</v>
+        <v>1.036468947923664</v>
       </c>
       <c r="L6">
-        <v>1.01523227478125</v>
+        <v>1.025206374246581</v>
       </c>
       <c r="M6">
-        <v>0.9917481100813018</v>
+        <v>1.003261840019251</v>
       </c>
       <c r="N6">
-        <v>1.020364668347646</v>
+        <v>1.031277347250446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997737122016045</v>
+        <v>1.009812150766354</v>
       </c>
       <c r="D7">
-        <v>1.016102063467323</v>
+        <v>1.025874296451421</v>
       </c>
       <c r="E7">
-        <v>1.003530767438027</v>
+        <v>1.014420705587493</v>
       </c>
       <c r="F7">
-        <v>0.9785245772907323</v>
+        <v>0.9911428932888363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042908447981699</v>
+        <v>1.047421023419439</v>
       </c>
       <c r="J7">
-        <v>1.017192778148321</v>
+        <v>1.028962147903103</v>
       </c>
       <c r="K7">
-        <v>1.026007021239042</v>
+        <v>1.035667257331835</v>
       </c>
       <c r="L7">
-        <v>1.013583777968917</v>
+        <v>1.024345201915728</v>
       </c>
       <c r="M7">
-        <v>0.9888862022341244</v>
+        <v>1.001346366599665</v>
       </c>
       <c r="N7">
-        <v>1.018637308566935</v>
+        <v>1.030423392176733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9877437514142898</v>
+        <v>1.003804928351109</v>
       </c>
       <c r="D8">
-        <v>1.008394563721312</v>
+        <v>1.021325812779097</v>
       </c>
       <c r="E8">
-        <v>0.9951966459204405</v>
+        <v>1.009605979364729</v>
       </c>
       <c r="F8">
-        <v>0.9647934336603672</v>
+        <v>0.981692069884184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039355269382067</v>
+        <v>1.045302735872264</v>
       </c>
       <c r="J8">
-        <v>1.009713555193496</v>
+        <v>1.025303330532337</v>
       </c>
       <c r="K8">
-        <v>1.019462013384971</v>
+        <v>1.032224457551024</v>
       </c>
       <c r="L8">
-        <v>1.006442077224383</v>
+        <v>1.020657384916384</v>
       </c>
       <c r="M8">
-        <v>0.9764724064406974</v>
+        <v>0.9931258805392742</v>
       </c>
       <c r="N8">
-        <v>1.011147464257634</v>
+        <v>1.026759378865629</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9686585162375039</v>
+        <v>0.9926554274712216</v>
       </c>
       <c r="D9">
-        <v>0.9936921614033281</v>
+        <v>1.012896993182902</v>
       </c>
       <c r="E9">
-        <v>0.9793334223955589</v>
+        <v>1.000716884785096</v>
       </c>
       <c r="F9">
-        <v>0.9384237878731798</v>
+        <v>0.9640363474152074</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032435274331713</v>
+        <v>1.041275806735615</v>
       </c>
       <c r="J9">
-        <v>0.995368727076103</v>
+        <v>1.018470234263612</v>
       </c>
       <c r="K9">
-        <v>1.006888414691971</v>
+        <v>1.025784234633068</v>
       </c>
       <c r="L9">
-        <v>0.9927709425802627</v>
+        <v>1.013798341731618</v>
       </c>
       <c r="M9">
-        <v>0.9526016918138935</v>
+        <v>0.9777411657785465</v>
       </c>
       <c r="N9">
-        <v>0.9967822648389398</v>
+        <v>1.019916578816435</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9547164898661835</v>
+        <v>0.984794127599585</v>
       </c>
       <c r="D10">
-        <v>0.9829738311876324</v>
+        <v>1.006966326806422</v>
       </c>
       <c r="E10">
-        <v>0.9677901352121789</v>
+        <v>0.9944842846962259</v>
       </c>
       <c r="F10">
-        <v>0.9189985220310395</v>
+        <v>0.951477344917236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027292623629489</v>
+        <v>1.038373741140825</v>
       </c>
       <c r="J10">
-        <v>0.9848495424513073</v>
+        <v>1.013624311361282</v>
       </c>
       <c r="K10">
-        <v>0.9976574569409511</v>
+        <v>1.021210931001147</v>
       </c>
       <c r="L10">
-        <v>0.9827663646472842</v>
+        <v>1.008953846370656</v>
       </c>
       <c r="M10">
-        <v>0.9350023742816516</v>
+        <v>0.9667816721520135</v>
       </c>
       <c r="N10">
-        <v>0.9862481417654096</v>
+        <v>1.015063774147748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483273753776934</v>
+        <v>0.981276239848204</v>
       </c>
       <c r="D11">
-        <v>0.9780699029571197</v>
+        <v>1.004316102076761</v>
       </c>
       <c r="E11">
-        <v>0.9625132545998814</v>
+        <v>0.9917042284623491</v>
       </c>
       <c r="F11">
-        <v>0.9100400367635785</v>
+        <v>0.945822673116526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024916221037736</v>
+        <v>1.037060612044147</v>
       </c>
       <c r="J11">
-        <v>0.9800198112919325</v>
+        <v>1.011449240649849</v>
       </c>
       <c r="K11">
-        <v>0.9934175875885284</v>
+        <v>1.019157079479445</v>
       </c>
       <c r="L11">
-        <v>0.9781785195587733</v>
+        <v>1.00678430514886</v>
       </c>
       <c r="M11">
-        <v>0.9268843020200359</v>
+        <v>0.9618441074804293</v>
       </c>
       <c r="N11">
-        <v>0.9814115518338101</v>
+        <v>1.012885614586421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9458946863274357</v>
+        <v>0.9799512664857271</v>
       </c>
       <c r="D12">
-        <v>0.9762041522158925</v>
+        <v>1.003318552858617</v>
       </c>
       <c r="E12">
-        <v>0.9605062290971006</v>
+        <v>0.9906585665338293</v>
       </c>
       <c r="F12">
-        <v>0.9066185871318624</v>
+        <v>0.9436868884570963</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024008534915818</v>
+        <v>1.036563898128964</v>
       </c>
       <c r="J12">
-        <v>0.9781795128080785</v>
+        <v>1.010629046871878</v>
       </c>
       <c r="K12">
-        <v>0.9918018978875797</v>
+        <v>1.018382449611438</v>
       </c>
       <c r="L12">
-        <v>0.9764313060529762</v>
+        <v>1.005966948965419</v>
       </c>
       <c r="M12">
-        <v>0.9237837769614249</v>
+        <v>0.9599787837153544</v>
       </c>
       <c r="N12">
-        <v>0.9795686399150244</v>
+        <v>1.012064256039208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9464193175463383</v>
+        <v>0.9802363245523253</v>
       </c>
       <c r="D13">
-        <v>0.9766064483664226</v>
+        <v>1.00353313853055</v>
       </c>
       <c r="E13">
-        <v>0.9609389601846617</v>
+        <v>0.990883467860929</v>
       </c>
       <c r="F13">
-        <v>0.9073569609142578</v>
+        <v>0.9441466723677155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024204412672587</v>
+        <v>1.036670858406408</v>
       </c>
       <c r="J13">
-        <v>0.9785764503237236</v>
+        <v>1.010805549484196</v>
       </c>
       <c r="K13">
-        <v>0.9921503942097877</v>
+        <v>1.018549153224979</v>
       </c>
       <c r="L13">
-        <v>0.9768081231680796</v>
+        <v>1.006142806644199</v>
       </c>
       <c r="M13">
-        <v>0.9244528913324225</v>
+        <v>0.960380360322066</v>
       </c>
       <c r="N13">
-        <v>0.9799661411274712</v>
+        <v>1.012241009305481</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.948127544542414</v>
+        <v>0.9811670970195923</v>
       </c>
       <c r="D14">
-        <v>0.9779166118320458</v>
+        <v>1.004233917172783</v>
       </c>
       <c r="E14">
-        <v>0.9623483440740678</v>
+        <v>0.9916180643972911</v>
       </c>
       <c r="F14">
-        <v>0.9097592095431917</v>
+        <v>0.9456468680801016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024841717269922</v>
+        <v>1.037019739156957</v>
       </c>
       <c r="J14">
-        <v>0.9798686690401306</v>
+        <v>1.011381698162771</v>
       </c>
       <c r="K14">
-        <v>0.9932848947216255</v>
+        <v>1.019093291973739</v>
       </c>
       <c r="L14">
-        <v>0.9780350032557151</v>
+        <v>1.006716980946537</v>
       </c>
       <c r="M14">
-        <v>0.9266298154427962</v>
+        <v>0.9616905727085425</v>
       </c>
       <c r="N14">
-        <v>0.9812601949426749</v>
+        <v>1.012817976181264</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9491719391106155</v>
+        <v>0.9817381186368813</v>
       </c>
       <c r="D15">
-        <v>0.9787178318098307</v>
+        <v>1.004663924323833</v>
       </c>
       <c r="E15">
-        <v>0.9632103209307999</v>
+        <v>0.9920689220262913</v>
       </c>
       <c r="F15">
-        <v>0.9112264864109401</v>
+        <v>0.9465664079364584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025230988042573</v>
+        <v>1.037233494113924</v>
       </c>
       <c r="J15">
-        <v>0.9806585432118813</v>
+        <v>1.011735032220532</v>
       </c>
       <c r="K15">
-        <v>0.9939783463529865</v>
+        <v>1.019426976846524</v>
       </c>
       <c r="L15">
-        <v>0.9787850616538917</v>
+        <v>1.00706920383688</v>
       </c>
       <c r="M15">
-        <v>0.9279594660637339</v>
+        <v>0.9624936134763491</v>
       </c>
       <c r="N15">
-        <v>0.9820511908263494</v>
+        <v>1.013171812013915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9551325604002713</v>
+        <v>0.9850251019228691</v>
       </c>
       <c r="D16">
-        <v>0.9832933671072122</v>
+        <v>1.007140415990373</v>
       </c>
       <c r="E16">
-        <v>0.9681340603482319</v>
+        <v>0.994667007501235</v>
       </c>
       <c r="F16">
-        <v>0.9195805953406324</v>
+        <v>0.951847828290369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02744698184227</v>
+        <v>1.038459659519883</v>
       </c>
       <c r="J16">
-        <v>0.9851638765299431</v>
+        <v>1.013766984647396</v>
       </c>
       <c r="K16">
-        <v>0.9979333752627081</v>
+        <v>1.0213456312781</v>
       </c>
       <c r="L16">
-        <v>0.9830650773831717</v>
+        <v>1.009096259947924</v>
       </c>
       <c r="M16">
-        <v>0.9355298237928928</v>
+        <v>0.9671051139848992</v>
       </c>
       <c r="N16">
-        <v>0.9865629222344913</v>
+        <v>1.015206650046294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587729406007648</v>
+        <v>0.9870556607490303</v>
       </c>
       <c r="D17">
-        <v>0.9860900357087417</v>
+        <v>1.008671311938634</v>
       </c>
       <c r="E17">
-        <v>0.971144687591657</v>
+        <v>0.9962744028197015</v>
       </c>
       <c r="F17">
-        <v>0.9246668744873624</v>
+        <v>0.9551008344100215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028795330467423</v>
+        <v>1.039213353170654</v>
       </c>
       <c r="J17">
-        <v>0.9879130959916729</v>
+        <v>1.015020522550044</v>
       </c>
       <c r="K17">
-        <v>1.000346433407336</v>
+        <v>1.022528990896348</v>
       </c>
       <c r="L17">
-        <v>0.9856783055952268</v>
+        <v>1.01034807211331</v>
       </c>
       <c r="M17">
-        <v>0.9401386214376378</v>
+        <v>0.9699447349956224</v>
       </c>
       <c r="N17">
-        <v>0.989316045903197</v>
+        <v>1.016461968116547</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9608628401124062</v>
+        <v>0.9882291464153947</v>
       </c>
       <c r="D18">
-        <v>0.9876962871539896</v>
+        <v>1.009556382811587</v>
       </c>
       <c r="E18">
-        <v>0.9728742476741764</v>
+        <v>0.9972041837830824</v>
       </c>
       <c r="F18">
-        <v>0.9275817144503222</v>
+        <v>0.9569775741398405</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029567556381777</v>
+        <v>1.039647550959489</v>
       </c>
       <c r="J18">
-        <v>0.9894905334577516</v>
+        <v>1.015744338324533</v>
       </c>
       <c r="K18">
-        <v>1.001730833055334</v>
+        <v>1.023212174582169</v>
       </c>
       <c r="L18">
-        <v>0.9871782316812725</v>
+        <v>1.011071351798985</v>
       </c>
       <c r="M18">
-        <v>0.942779656609907</v>
+        <v>0.9715826885075551</v>
       </c>
       <c r="N18">
-        <v>0.9908957235114122</v>
+        <v>1.017186811792458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9615699453006913</v>
+        <v>0.9886274585537072</v>
       </c>
       <c r="D19">
-        <v>0.9882398673463894</v>
+        <v>1.009856856098418</v>
       </c>
       <c r="E19">
-        <v>0.9734596306304518</v>
+        <v>0.9975199178959852</v>
       </c>
       <c r="F19">
-        <v>0.9285671135730679</v>
+        <v>0.9576140670287723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02982851857858</v>
+        <v>1.039794695526291</v>
       </c>
       <c r="J19">
-        <v>0.9900241038980961</v>
+        <v>1.015989915250723</v>
       </c>
       <c r="K19">
-        <v>1.002199079172007</v>
+        <v>1.023443946448504</v>
       </c>
       <c r="L19">
-        <v>0.9876856695436648</v>
+        <v>1.011316824433997</v>
       </c>
       <c r="M19">
-        <v>0.9436724583734609</v>
+        <v>0.9721381456760561</v>
       </c>
       <c r="N19">
-        <v>0.9914300516829833</v>
+        <v>1.017432737466051</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583858682791333</v>
+        <v>0.9868389370016277</v>
       </c>
       <c r="D20">
-        <v>0.9857925967572284</v>
+        <v>1.008507881273314</v>
       </c>
       <c r="E20">
-        <v>0.9708244495187214</v>
+        <v>0.9961027554252812</v>
       </c>
       <c r="F20">
-        <v>0.9241266100603626</v>
+        <v>0.9547539766428923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028652155329694</v>
+        <v>1.039133052724561</v>
       </c>
       <c r="J20">
-        <v>0.9876208675145902</v>
+        <v>1.01488679536065</v>
       </c>
       <c r="K20">
-        <v>1.000089952892521</v>
+        <v>1.022402761545421</v>
       </c>
       <c r="L20">
-        <v>0.9854004780007565</v>
+        <v>1.010214481098839</v>
       </c>
       <c r="M20">
-        <v>0.9396490915134322</v>
+        <v>0.9696419852647691</v>
       </c>
       <c r="N20">
-        <v>0.9890234024281578</v>
+        <v>1.016328051019205</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9476262154696558</v>
+        <v>0.9808935220489362</v>
       </c>
       <c r="D21">
-        <v>0.9775320642224615</v>
+        <v>1.004027924695959</v>
       </c>
       <c r="E21">
-        <v>0.9619346576610416</v>
+        <v>0.9914021104903032</v>
       </c>
       <c r="F21">
-        <v>0.9090545040759108</v>
+        <v>0.9452060993046434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024654759133208</v>
+        <v>1.036917253786511</v>
       </c>
       <c r="J21">
-        <v>0.9794894666550832</v>
+        <v>1.011212381954615</v>
       </c>
       <c r="K21">
-        <v>0.9929519781321</v>
+        <v>1.018933386525187</v>
       </c>
       <c r="L21">
-        <v>0.9776749487042573</v>
+        <v>1.006548224113535</v>
       </c>
       <c r="M21">
-        <v>0.9259912089566066</v>
+        <v>0.9613056326577413</v>
       </c>
       <c r="N21">
-        <v>0.9808804540467457</v>
+        <v>1.012648419524672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9405127889751025</v>
+        <v>0.977049020814853</v>
       </c>
       <c r="D22">
-        <v>0.9720795025707272</v>
+        <v>1.001134740246464</v>
       </c>
       <c r="E22">
-        <v>0.9560703379938973</v>
+        <v>0.9883708079817007</v>
       </c>
       <c r="F22">
-        <v>0.8990273051624947</v>
+        <v>0.9389965601970839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021995275279489</v>
+        <v>1.035471990325478</v>
       </c>
       <c r="J22">
-        <v>0.9741056961808672</v>
+        <v>1.008830684491018</v>
       </c>
       <c r="K22">
-        <v>0.9882251306168843</v>
+        <v>1.016683751177873</v>
       </c>
       <c r="L22">
-        <v>0.9725653435101643</v>
+        <v>1.004176216018551</v>
       </c>
       <c r="M22">
-        <v>0.9169047189813223</v>
+        <v>0.9558817659104155</v>
       </c>
       <c r="N22">
-        <v>0.975489038000929</v>
+        <v>1.010263339777492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9443193149949066</v>
+        <v>0.9790975655026027</v>
       </c>
       <c r="D23">
-        <v>0.9749963646999175</v>
+        <v>1.002676002539998</v>
       </c>
       <c r="E23">
-        <v>0.9592071548629836</v>
+        <v>0.989985237370907</v>
       </c>
       <c r="F23">
-        <v>0.904399676954678</v>
+        <v>0.9423089627197522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02341993943735</v>
+        <v>1.036243259431577</v>
       </c>
       <c r="J23">
-        <v>0.9769873855681613</v>
+        <v>1.010100308272215</v>
       </c>
       <c r="K23">
-        <v>0.990755240691512</v>
+        <v>1.017883045908838</v>
       </c>
       <c r="L23">
-        <v>0.9752997477858104</v>
+        <v>1.005440254155132</v>
       </c>
       <c r="M23">
-        <v>0.921773011562579</v>
+        <v>0.9587752475864069</v>
       </c>
       <c r="N23">
-        <v>0.9783748197176875</v>
+        <v>1.011534766570086</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9585608725545044</v>
+        <v>0.9869368987483443</v>
       </c>
       <c r="D24">
-        <v>0.9859270735189156</v>
+        <v>1.008581752834082</v>
       </c>
       <c r="E24">
-        <v>0.9709692327980558</v>
+        <v>0.9961803394945707</v>
       </c>
       <c r="F24">
-        <v>0.9243708918293663</v>
+        <v>0.9549107704449765</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028716893841481</v>
+        <v>1.039169353751321</v>
       </c>
       <c r="J24">
-        <v>0.9877529933807806</v>
+        <v>1.014947243585411</v>
       </c>
       <c r="K24">
-        <v>1.000205916451763</v>
+        <v>1.022459820891838</v>
       </c>
       <c r="L24">
-        <v>0.9855260911621331</v>
+        <v>1.010274866341481</v>
       </c>
       <c r="M24">
-        <v>0.9398704341076983</v>
+        <v>0.9697788413607077</v>
       </c>
       <c r="N24">
-        <v>0.9891557159282331</v>
+        <v>1.016388585087379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9737886228905163</v>
+        <v>0.9956094802314238</v>
       </c>
       <c r="D25">
-        <v>0.9976412308197686</v>
+        <v>1.015128333968879</v>
       </c>
       <c r="E25">
-        <v>0.9835905229293345</v>
+        <v>1.003066269563616</v>
       </c>
       <c r="F25">
-        <v>0.94553427438102</v>
+        <v>0.9687306406791255</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034310440286194</v>
+        <v>1.042353648257084</v>
       </c>
       <c r="J25">
-        <v>0.999231489798176</v>
+        <v>1.020285511721972</v>
       </c>
       <c r="K25">
-        <v>1.01027627433316</v>
+        <v>1.0274962551035</v>
       </c>
       <c r="L25">
-        <v>0.9964490306575785</v>
+        <v>1.015617171402592</v>
       </c>
       <c r="M25">
-        <v>0.9590413569536781</v>
+        <v>0.9818345772338664</v>
       </c>
       <c r="N25">
-        <v>1.000650513127143</v>
+        <v>1.021734434177001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00222181308617</v>
+        <v>1.001185194338563</v>
       </c>
       <c r="D2">
-        <v>1.020127891071193</v>
+        <v>1.021278512713177</v>
       </c>
       <c r="E2">
-        <v>1.008340155008171</v>
+        <v>1.007511635799359</v>
       </c>
       <c r="F2">
-        <v>0.9791948618852112</v>
+        <v>0.9781034019960245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044738096699618</v>
+        <v>1.044915289125622</v>
       </c>
       <c r="J2">
-        <v>1.024336272580434</v>
+        <v>1.023330514142761</v>
       </c>
       <c r="K2">
-        <v>1.031313757307559</v>
+        <v>1.032449154619818</v>
       </c>
       <c r="L2">
-        <v>1.019684508296673</v>
+        <v>1.018867304222829</v>
       </c>
       <c r="M2">
-        <v>0.9909518619216571</v>
+        <v>0.9898764617964046</v>
       </c>
       <c r="N2">
-        <v>1.02579094758051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011750157506713</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034014577190879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006862449610855</v>
+        <v>1.004875886551006</v>
       </c>
       <c r="D3">
-        <v>1.02364032654108</v>
+        <v>1.02372050362067</v>
       </c>
       <c r="E3">
-        <v>1.012054252399569</v>
+        <v>1.010397021034263</v>
       </c>
       <c r="F3">
-        <v>0.9865070033095511</v>
+        <v>0.9844258053792289</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046385853072671</v>
+        <v>1.045919597426585</v>
       </c>
       <c r="J3">
-        <v>1.027167769596819</v>
+        <v>1.025234506804032</v>
       </c>
       <c r="K3">
-        <v>1.033979402899663</v>
+        <v>1.034058612203227</v>
       </c>
       <c r="L3">
-        <v>1.022535185564342</v>
+        <v>1.020898576237994</v>
       </c>
       <c r="M3">
-        <v>0.9973154912488121</v>
+        <v>0.9952619173006166</v>
       </c>
       <c r="N3">
-        <v>1.028626465647437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01238553883187</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035149936552991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009795824156489</v>
+        <v>1.00721825721066</v>
       </c>
       <c r="D4">
-        <v>1.025861928703194</v>
+        <v>1.025273611847901</v>
       </c>
       <c r="E4">
-        <v>1.014407594852875</v>
+        <v>1.012233893286185</v>
       </c>
       <c r="F4">
-        <v>0.9911172570109587</v>
+        <v>0.9884251060903507</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047415321289177</v>
+        <v>1.046546560738293</v>
       </c>
       <c r="J4">
-        <v>1.028952228187178</v>
+        <v>1.026439104330358</v>
       </c>
       <c r="K4">
-        <v>1.03565792981812</v>
+        <v>1.035076283458897</v>
       </c>
       <c r="L4">
-        <v>1.024335187999884</v>
+        <v>1.022186874696869</v>
       </c>
       <c r="M4">
-        <v>1.001324084506881</v>
+        <v>0.9986652669670132</v>
       </c>
       <c r="N4">
-        <v>1.030413458373674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012787602527923</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035870426755674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011013060642171</v>
+        <v>1.008194947146801</v>
       </c>
       <c r="D5">
-        <v>1.026784089397797</v>
+        <v>1.025924016858823</v>
       </c>
       <c r="E5">
-        <v>1.015385453700806</v>
+        <v>1.013001426223254</v>
       </c>
       <c r="F5">
-        <v>0.9930278995208132</v>
+        <v>0.9900881409797867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04783957858721</v>
+        <v>1.046806815809181</v>
       </c>
       <c r="J5">
-        <v>1.029691413018306</v>
+        <v>1.026941637155315</v>
       </c>
       <c r="K5">
-        <v>1.036352879619987</v>
+        <v>1.035502297793105</v>
       </c>
       <c r="L5">
-        <v>1.025081634114615</v>
+        <v>1.022724697378519</v>
       </c>
       <c r="M5">
-        <v>1.002984473222188</v>
+        <v>1.000080038957913</v>
       </c>
       <c r="N5">
-        <v>1.031153692932048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01295562149768</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036178865655086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011216523069218</v>
+        <v>1.00836142792179</v>
       </c>
       <c r="D6">
-        <v>1.026938244833737</v>
+        <v>1.026037429278499</v>
       </c>
       <c r="E6">
-        <v>1.015548979967477</v>
+        <v>1.01313269489052</v>
       </c>
       <c r="F6">
-        <v>0.9933471334332761</v>
+        <v>0.9903694073249096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047910320359143</v>
+        <v>1.046852690506239</v>
       </c>
       <c r="J6">
-        <v>1.029814891982412</v>
+        <v>1.027028673190537</v>
       </c>
       <c r="K6">
-        <v>1.036468947923664</v>
+        <v>1.035578026941051</v>
       </c>
       <c r="L6">
-        <v>1.025206374246581</v>
+        <v>1.022817418729442</v>
       </c>
       <c r="M6">
-        <v>1.003261840019251</v>
+        <v>1.000319712996754</v>
       </c>
       <c r="N6">
-        <v>1.031277347250446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0129850500743</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036241202361694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009812150766354</v>
+        <v>1.007239665451753</v>
       </c>
       <c r="D7">
-        <v>1.025874296451421</v>
+        <v>1.025294553715715</v>
       </c>
       <c r="E7">
-        <v>1.014420705587493</v>
+        <v>1.012251689378326</v>
       </c>
       <c r="F7">
-        <v>0.9911428932888363</v>
+        <v>0.9884560959236188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047421023419439</v>
+        <v>1.046556715853047</v>
       </c>
       <c r="J7">
-        <v>1.028962147903103</v>
+        <v>1.026453951892476</v>
       </c>
       <c r="K7">
-        <v>1.035667257331835</v>
+        <v>1.035094085419031</v>
       </c>
       <c r="L7">
-        <v>1.024345201915728</v>
+        <v>1.022201509805573</v>
       </c>
       <c r="M7">
-        <v>1.001346366599665</v>
+        <v>0.9986928227436208</v>
       </c>
       <c r="N7">
-        <v>1.030423392176733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012793456931932</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03590323134958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003804928351109</v>
+        <v>1.00245246353066</v>
       </c>
       <c r="D8">
-        <v>1.021325812779097</v>
+        <v>1.022124515485356</v>
       </c>
       <c r="E8">
-        <v>1.009605979364729</v>
+        <v>1.008502465137086</v>
       </c>
       <c r="F8">
-        <v>0.981692069884184</v>
+        <v>0.9802705291208705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045302735872264</v>
+        <v>1.045267673762701</v>
       </c>
       <c r="J8">
-        <v>1.025303330532337</v>
+        <v>1.023989763436527</v>
       </c>
       <c r="K8">
-        <v>1.032224457551024</v>
+        <v>1.033012909072425</v>
       </c>
       <c r="L8">
-        <v>1.020657384916384</v>
+        <v>1.019568483781248</v>
       </c>
       <c r="M8">
-        <v>0.9931258805392742</v>
+        <v>0.9917245512113108</v>
       </c>
       <c r="N8">
-        <v>1.026759378865629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011971298135119</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034436244546504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926554274712216</v>
+        <v>0.9936359746709</v>
       </c>
       <c r="D9">
-        <v>1.012896993182902</v>
+        <v>1.016303207088978</v>
       </c>
       <c r="E9">
-        <v>1.000716884785096</v>
+        <v>1.001641833280639</v>
       </c>
       <c r="F9">
-        <v>0.9640363474152074</v>
+        <v>0.9650803471457134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041275806735615</v>
+        <v>1.042804973415705</v>
       </c>
       <c r="J9">
-        <v>1.018470234263612</v>
+        <v>1.01941548209374</v>
       </c>
       <c r="K9">
-        <v>1.025784234633068</v>
+        <v>1.029137200142659</v>
       </c>
       <c r="L9">
-        <v>1.013798341731618</v>
+        <v>1.014708328930852</v>
       </c>
       <c r="M9">
-        <v>0.9777411657785465</v>
+        <v>0.9787665731980199</v>
       </c>
       <c r="N9">
-        <v>1.019916578816435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01044430431451</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031692631014803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.984794127599585</v>
+        <v>0.9874880355695775</v>
       </c>
       <c r="D10">
-        <v>1.006966326806422</v>
+        <v>1.012267082913728</v>
       </c>
       <c r="E10">
-        <v>0.9944842846962259</v>
+        <v>0.9968911961585234</v>
       </c>
       <c r="F10">
-        <v>0.951477344917236</v>
+        <v>0.9543745462337054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038373741140825</v>
+        <v>1.041035362989746</v>
       </c>
       <c r="J10">
-        <v>1.013624311361282</v>
+        <v>1.016207019734576</v>
       </c>
       <c r="K10">
-        <v>1.021210931001147</v>
+        <v>1.026418328241353</v>
       </c>
       <c r="L10">
-        <v>1.008953846370656</v>
+        <v>1.011316808799969</v>
       </c>
       <c r="M10">
-        <v>0.9667816721520135</v>
+        <v>0.9696195223367913</v>
       </c>
       <c r="N10">
-        <v>1.015063774147748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009374243207461</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029787123578772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.981276239848204</v>
+        <v>0.984765094178303</v>
       </c>
       <c r="D11">
-        <v>1.004316102076761</v>
+        <v>1.01049272930048</v>
       </c>
       <c r="E11">
-        <v>0.9917042284623491</v>
+        <v>0.9947968364202865</v>
       </c>
       <c r="F11">
-        <v>0.945822673116526</v>
+        <v>0.9495927649170035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037060612044147</v>
+        <v>1.040244067762434</v>
       </c>
       <c r="J11">
-        <v>1.011449240649849</v>
+        <v>1.014785690376078</v>
       </c>
       <c r="K11">
-        <v>1.019157079479445</v>
+        <v>1.025219444297814</v>
       </c>
       <c r="L11">
-        <v>1.00678430514886</v>
+        <v>1.009817548419259</v>
       </c>
       <c r="M11">
-        <v>0.9618441074804293</v>
+        <v>0.9655322945214526</v>
       </c>
       <c r="N11">
-        <v>1.012885614586421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00890172926199</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028972548707182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799512664857271</v>
+        <v>0.9837368134845359</v>
       </c>
       <c r="D12">
-        <v>1.003318552858617</v>
+        <v>1.009819185290906</v>
       </c>
       <c r="E12">
-        <v>0.9906585665338293</v>
+        <v>0.9940064270570715</v>
       </c>
       <c r="F12">
-        <v>0.9436868884570963</v>
+        <v>0.9477851454033926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036563898128964</v>
+        <v>1.039940687767829</v>
       </c>
       <c r="J12">
-        <v>1.010629046871878</v>
+        <v>1.014245772751073</v>
       </c>
       <c r="K12">
-        <v>1.018382449611438</v>
+        <v>1.02476065244068</v>
       </c>
       <c r="L12">
-        <v>1.005966948965419</v>
+        <v>1.009249362410709</v>
       </c>
       <c r="M12">
-        <v>0.9599787837153544</v>
+        <v>0.9639860646233196</v>
       </c>
       <c r="N12">
-        <v>1.012064256039208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008721538532421</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028648162979182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9802363245523253</v>
+        <v>0.9839567942894056</v>
       </c>
       <c r="D13">
-        <v>1.00353313853055</v>
+        <v>1.009962391115585</v>
       </c>
       <c r="E13">
-        <v>0.990883467860929</v>
+        <v>0.9941753042172132</v>
       </c>
       <c r="F13">
-        <v>0.9441466723677155</v>
+        <v>0.9481728691540443</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036670858406408</v>
+        <v>1.040005147691764</v>
       </c>
       <c r="J13">
-        <v>1.010805549484196</v>
+        <v>1.014360831933605</v>
       </c>
       <c r="K13">
-        <v>1.018549153224979</v>
+        <v>1.024857782783703</v>
       </c>
       <c r="L13">
-        <v>1.006142806644199</v>
+        <v>1.009370541307669</v>
       </c>
       <c r="M13">
-        <v>0.960380360322066</v>
+        <v>0.9643175923197994</v>
       </c>
       <c r="N13">
-        <v>1.012241009305481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.00875979269535</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028714324423539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811670970195923</v>
+        <v>0.9846798561000977</v>
       </c>
       <c r="D14">
-        <v>1.004233917172783</v>
+        <v>1.010436516678893</v>
       </c>
       <c r="E14">
-        <v>0.9916180643972911</v>
+        <v>0.9947312230501117</v>
       </c>
       <c r="F14">
-        <v>0.9456468680801016</v>
+        <v>0.9494433651761375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037019739156957</v>
+        <v>1.040218731982569</v>
       </c>
       <c r="J14">
-        <v>1.011381698162771</v>
+        <v>1.014740744612203</v>
       </c>
       <c r="K14">
-        <v>1.019093291973739</v>
+        <v>1.025180977706199</v>
       </c>
       <c r="L14">
-        <v>1.006716980946537</v>
+        <v>1.009770289837772</v>
       </c>
       <c r="M14">
-        <v>0.9616905727085425</v>
+        <v>0.9654044437000634</v>
       </c>
       <c r="N14">
-        <v>1.012817976181264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008886667284311</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028944274259483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817381186368813</v>
+        <v>0.9851260480790675</v>
       </c>
       <c r="D15">
-        <v>1.004663924323833</v>
+        <v>1.01073089620471</v>
       </c>
       <c r="E15">
-        <v>0.9920689220262913</v>
+        <v>0.9950747552353019</v>
       </c>
       <c r="F15">
-        <v>0.9465664079364584</v>
+        <v>0.950225106190934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037233494113924</v>
+        <v>1.04035133692762</v>
       </c>
       <c r="J15">
-        <v>1.011735032220532</v>
+        <v>1.014976041527603</v>
       </c>
       <c r="K15">
-        <v>1.019426976846524</v>
+        <v>1.025382422263488</v>
       </c>
       <c r="L15">
-        <v>1.00706920383688</v>
+        <v>1.010017708146987</v>
       </c>
       <c r="M15">
-        <v>0.9624936134763491</v>
+        <v>0.9660734282771869</v>
       </c>
       <c r="N15">
-        <v>1.013171812013915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008965534106579</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029092625350327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850251019228691</v>
+        <v>0.9876862169591882</v>
       </c>
       <c r="D16">
-        <v>1.007140415990373</v>
+        <v>1.01241104946629</v>
       </c>
       <c r="E16">
-        <v>0.994667007501235</v>
+        <v>0.9970464710543423</v>
       </c>
       <c r="F16">
-        <v>0.951847828290369</v>
+        <v>0.954708876534583</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038459659519883</v>
+        <v>1.041101870911748</v>
       </c>
       <c r="J16">
-        <v>1.013766984647396</v>
+        <v>1.016318674483442</v>
       </c>
       <c r="K16">
-        <v>1.0213456312781</v>
+        <v>1.026523746388589</v>
       </c>
       <c r="L16">
-        <v>1.009096259947924</v>
+        <v>1.011432422707599</v>
       </c>
       <c r="M16">
-        <v>0.9671051139848992</v>
+        <v>0.9699077835128956</v>
       </c>
       <c r="N16">
-        <v>1.015206650046294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009413805086494</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029902786624286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870556607490303</v>
+        <v>0.9892726208601581</v>
       </c>
       <c r="D17">
-        <v>1.008671311938634</v>
+        <v>1.013453612184899</v>
       </c>
       <c r="E17">
-        <v>0.9962744028197015</v>
+        <v>0.9982704505325415</v>
       </c>
       <c r="F17">
-        <v>0.9551008344100215</v>
+        <v>0.9574780026231496</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039213353170654</v>
+        <v>1.041563661093881</v>
       </c>
       <c r="J17">
-        <v>1.015020522550044</v>
+        <v>1.017149370949122</v>
       </c>
       <c r="K17">
-        <v>1.022528990896348</v>
+        <v>1.027229792382851</v>
       </c>
       <c r="L17">
-        <v>1.01034807211331</v>
+        <v>1.012308873127001</v>
       </c>
       <c r="M17">
-        <v>0.9699447349956224</v>
+        <v>0.9722750681930914</v>
       </c>
       <c r="N17">
-        <v>1.016461968116547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009691188796095</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03040460149667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882291464153947</v>
+        <v>0.9901852406179282</v>
       </c>
       <c r="D18">
-        <v>1.009556382811587</v>
+        <v>1.014049350621637</v>
       </c>
       <c r="E18">
-        <v>0.9972041837830824</v>
+        <v>0.9989745539094166</v>
       </c>
       <c r="F18">
-        <v>0.9569775741398405</v>
+        <v>0.95907184701645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039647550959489</v>
+        <v>1.041825287422923</v>
       </c>
       <c r="J18">
-        <v>1.015744338324533</v>
+        <v>1.01762423519634</v>
       </c>
       <c r="K18">
-        <v>1.023212174582169</v>
+        <v>1.027629901930965</v>
       </c>
       <c r="L18">
-        <v>1.011071351798985</v>
+        <v>1.01281101139571</v>
       </c>
       <c r="M18">
-        <v>0.9715826885075551</v>
+        <v>0.973636541891262</v>
       </c>
       <c r="N18">
-        <v>1.017186811792458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009849032158578</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030675767888124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9886274585537072</v>
+        <v>0.9904997986512352</v>
       </c>
       <c r="D19">
-        <v>1.009856856098418</v>
+        <v>1.01425828804279</v>
       </c>
       <c r="E19">
-        <v>0.9975199178959852</v>
+        <v>0.9992179942569589</v>
       </c>
       <c r="F19">
-        <v>0.9576140670287723</v>
+        <v>0.959617645522153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039794695526291</v>
+        <v>1.041917473148433</v>
       </c>
       <c r="J19">
-        <v>1.015989915250723</v>
+        <v>1.01778982215601</v>
       </c>
       <c r="K19">
-        <v>1.023443946448504</v>
+        <v>1.027772112756938</v>
       </c>
       <c r="L19">
-        <v>1.011316824433997</v>
+        <v>1.012985623815397</v>
       </c>
       <c r="M19">
-        <v>0.9721381456760561</v>
+        <v>0.9741033274442642</v>
       </c>
       <c r="N19">
-        <v>1.017432737466051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009904647846949</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030782759010616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868389370016277</v>
+        <v>0.9891026729841333</v>
       </c>
       <c r="D20">
-        <v>1.008507881273314</v>
+        <v>1.013341520587256</v>
       </c>
       <c r="E20">
-        <v>0.9961027554252812</v>
+        <v>0.9981391842997402</v>
       </c>
       <c r="F20">
-        <v>0.9547539766428923</v>
+        <v>0.9571819862425448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039133052724561</v>
+        <v>1.041514093577692</v>
       </c>
       <c r="J20">
-        <v>1.01488679536065</v>
+        <v>1.017060229088795</v>
       </c>
       <c r="K20">
-        <v>1.022402761545421</v>
+        <v>1.027153763143704</v>
       </c>
       <c r="L20">
-        <v>1.010214481098839</v>
+        <v>1.012214833015713</v>
       </c>
       <c r="M20">
-        <v>0.9696419852647691</v>
+        <v>0.9720219770458872</v>
       </c>
       <c r="N20">
-        <v>1.016328051019205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009661364148383</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030349499523583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9808935220489362</v>
+        <v>0.9844734786676831</v>
       </c>
       <c r="D21">
-        <v>1.004027924695959</v>
+        <v>1.010305918717404</v>
       </c>
       <c r="E21">
-        <v>0.9914021104903032</v>
+        <v>0.9945733957787558</v>
       </c>
       <c r="F21">
-        <v>0.9452060993046434</v>
+        <v>0.949076686724896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036917253786511</v>
+        <v>1.040160771196242</v>
       </c>
       <c r="J21">
-        <v>1.011212381954615</v>
+        <v>1.014635012887821</v>
       </c>
       <c r="K21">
-        <v>1.018933386525187</v>
+        <v>1.025094637900822</v>
       </c>
       <c r="L21">
-        <v>1.006548224113535</v>
+        <v>1.009658311361877</v>
       </c>
       <c r="M21">
-        <v>0.9613056326577413</v>
+        <v>0.9650916045403081</v>
       </c>
       <c r="N21">
-        <v>1.012648419524672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008852164025417</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028896854029614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.977049020814853</v>
+        <v>0.9814893469243794</v>
       </c>
       <c r="D22">
-        <v>1.001134740246464</v>
+        <v>1.008348113501631</v>
       </c>
       <c r="E22">
-        <v>0.9883708079817007</v>
+        <v>0.9922811645064765</v>
       </c>
       <c r="F22">
-        <v>0.9389965601970839</v>
+        <v>0.9438236018309532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035471990325478</v>
+        <v>1.039273881182841</v>
       </c>
       <c r="J22">
-        <v>1.008830684491018</v>
+        <v>1.01306405297188</v>
       </c>
       <c r="K22">
-        <v>1.016683751177873</v>
+        <v>1.023755987038725</v>
       </c>
       <c r="L22">
-        <v>1.004176216018551</v>
+        <v>1.008007099710283</v>
       </c>
       <c r="M22">
-        <v>0.9558817659104155</v>
+        <v>0.9605965775460926</v>
       </c>
       <c r="N22">
-        <v>1.010263339777492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008327101431417</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027936741665603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790975655026027</v>
+        <v>0.9830702778889093</v>
       </c>
       <c r="D23">
-        <v>1.002676002539998</v>
+        <v>1.009379151409959</v>
       </c>
       <c r="E23">
-        <v>0.989985237370907</v>
+        <v>0.9934937611728957</v>
       </c>
       <c r="F23">
-        <v>0.9423089627197522</v>
+        <v>0.9466150255587352</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036243259431577</v>
+        <v>1.039741227527043</v>
       </c>
       <c r="J23">
-        <v>1.010100308272215</v>
+        <v>1.013893506889668</v>
       </c>
       <c r="K23">
-        <v>1.017883045908838</v>
+        <v>1.024458505737085</v>
       </c>
       <c r="L23">
-        <v>1.005440254155132</v>
+        <v>1.008879390593674</v>
       </c>
       <c r="M23">
-        <v>0.9587752475864069</v>
+        <v>0.9629843971597415</v>
       </c>
       <c r="N23">
-        <v>1.011534766570086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008603348289327</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028423745396397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869368987483443</v>
+        <v>0.9891671701767657</v>
       </c>
       <c r="D24">
-        <v>1.008581752834082</v>
+        <v>1.01337457950357</v>
       </c>
       <c r="E24">
-        <v>0.9961803394945707</v>
+        <v>0.9981873139366101</v>
       </c>
       <c r="F24">
-        <v>0.9549107704449765</v>
+        <v>0.9573025849014757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039169353751321</v>
+        <v>1.041526951375438</v>
       </c>
       <c r="J24">
-        <v>1.014947243585411</v>
+        <v>1.017088693761312</v>
       </c>
       <c r="K24">
-        <v>1.022459820891838</v>
+        <v>1.027170824106571</v>
       </c>
       <c r="L24">
-        <v>1.010274866341481</v>
+        <v>1.012246337329137</v>
       </c>
       <c r="M24">
-        <v>0.9697788413607077</v>
+        <v>0.9721234336399716</v>
       </c>
       <c r="N24">
-        <v>1.016388585087379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00966934484818</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030333952975115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9956094802314238</v>
+        <v>0.9959743421228503</v>
       </c>
       <c r="D25">
-        <v>1.015128333968879</v>
+        <v>1.017853860030103</v>
       </c>
       <c r="E25">
-        <v>1.003066269563616</v>
+        <v>1.003457572875484</v>
       </c>
       <c r="F25">
-        <v>0.9687306406791255</v>
+        <v>0.9691177303094406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042353648257084</v>
+        <v>1.043474063414606</v>
       </c>
       <c r="J25">
-        <v>1.020285511721972</v>
+        <v>1.02063794939781</v>
       </c>
       <c r="K25">
-        <v>1.0274962551035</v>
+        <v>1.030181198738638</v>
       </c>
       <c r="L25">
-        <v>1.015617171402592</v>
+        <v>1.016002450552332</v>
       </c>
       <c r="M25">
-        <v>0.9818345772338664</v>
+        <v>0.9822151504923539</v>
       </c>
       <c r="N25">
-        <v>1.021734434177001</v>
+        <v>1.010853841730895</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032459588107282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001185194338563</v>
+        <v>1.001267851103761</v>
       </c>
       <c r="D2">
-        <v>1.021278512713177</v>
+        <v>1.02103841345778</v>
       </c>
       <c r="E2">
-        <v>1.007511635799359</v>
+        <v>1.00758647991159</v>
       </c>
       <c r="F2">
-        <v>0.9781034019960245</v>
+        <v>0.9781904375031503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044915289125622</v>
+        <v>1.044843920096119</v>
       </c>
       <c r="J2">
-        <v>1.023330514142761</v>
+        <v>1.023410706979022</v>
       </c>
       <c r="K2">
-        <v>1.032449154619818</v>
+        <v>1.032212228658795</v>
       </c>
       <c r="L2">
-        <v>1.018867304222829</v>
+        <v>1.018941125221932</v>
       </c>
       <c r="M2">
-        <v>0.9898764617964046</v>
+        <v>0.9899622149911489</v>
       </c>
       <c r="N2">
-        <v>1.011750157506713</v>
+        <v>1.013458446145539</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034014577190879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033855875052325</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020694139396437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004875886551006</v>
+        <v>1.004824816279899</v>
       </c>
       <c r="D3">
-        <v>1.02372050362067</v>
+        <v>1.023299458131755</v>
       </c>
       <c r="E3">
-        <v>1.010397021034263</v>
+        <v>1.010355645399925</v>
       </c>
       <c r="F3">
-        <v>0.9844258053792289</v>
+        <v>0.9843722955975833</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045919597426585</v>
+        <v>1.045746337614855</v>
       </c>
       <c r="J3">
-        <v>1.025234506804032</v>
+        <v>1.02518481054686</v>
       </c>
       <c r="K3">
-        <v>1.034058612203227</v>
+        <v>1.033642651038454</v>
       </c>
       <c r="L3">
-        <v>1.020898576237994</v>
+        <v>1.020857716546959</v>
       </c>
       <c r="M3">
-        <v>0.9952619173006166</v>
+        <v>0.9952091196940582</v>
       </c>
       <c r="N3">
-        <v>1.01238553883187</v>
+        <v>1.01392889691134</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035149936552991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034864361467806</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020974095737526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00721825721066</v>
+        <v>1.007083273643179</v>
       </c>
       <c r="D4">
-        <v>1.025273611847901</v>
+        <v>1.024738401787018</v>
       </c>
       <c r="E4">
-        <v>1.012233893286185</v>
+        <v>1.012119473562197</v>
       </c>
       <c r="F4">
-        <v>0.9884251060903507</v>
+        <v>0.9882841007960709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046546560738293</v>
+        <v>1.046308933863243</v>
       </c>
       <c r="J4">
-        <v>1.026439104330358</v>
+        <v>1.026307507823694</v>
       </c>
       <c r="K4">
-        <v>1.035076283458897</v>
+        <v>1.034547149958747</v>
       </c>
       <c r="L4">
-        <v>1.022186874696869</v>
+        <v>1.02207379510332</v>
       </c>
       <c r="M4">
-        <v>0.9986652669670132</v>
+        <v>0.9985260137908551</v>
       </c>
       <c r="N4">
-        <v>1.012787602527923</v>
+        <v>1.014226700002056</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035870426755674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035504909370622</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021148560914273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008194947146801</v>
+        <v>1.008025184674609</v>
       </c>
       <c r="D5">
-        <v>1.025924016858823</v>
+        <v>1.025341402666949</v>
       </c>
       <c r="E5">
-        <v>1.013001426223254</v>
+        <v>1.012856703945645</v>
       </c>
       <c r="F5">
-        <v>0.9900881409797867</v>
+        <v>0.9899110226294801</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046806815809181</v>
+        <v>1.046542432492813</v>
       </c>
       <c r="J5">
-        <v>1.026941637155315</v>
+        <v>1.026776007736854</v>
       </c>
       <c r="K5">
-        <v>1.035502297793105</v>
+        <v>1.034926123741766</v>
       </c>
       <c r="L5">
-        <v>1.022724697378519</v>
+        <v>1.022581624707709</v>
       </c>
       <c r="M5">
-        <v>1.000080038957913</v>
+        <v>0.999905057188872</v>
       </c>
       <c r="N5">
-        <v>1.01295562149768</v>
+        <v>1.014351201645048</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036178865655086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035780796776848</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021221435151144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00836142792179</v>
+        <v>1.008185742375602</v>
       </c>
       <c r="D6">
-        <v>1.026037429278499</v>
+        <v>1.025446796772289</v>
       </c>
       <c r="E6">
-        <v>1.01313269489052</v>
+        <v>1.012982805737991</v>
       </c>
       <c r="F6">
-        <v>0.9903694073249096</v>
+        <v>0.9901861466133532</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046852690506239</v>
+        <v>1.046583768009442</v>
       </c>
       <c r="J6">
-        <v>1.027028673190537</v>
+        <v>1.026857243011182</v>
       </c>
       <c r="K6">
-        <v>1.035578026941051</v>
+        <v>1.034993893545744</v>
       </c>
       <c r="L6">
-        <v>1.022817418729442</v>
+        <v>1.022669230203429</v>
       </c>
       <c r="M6">
-        <v>1.000319712996754</v>
+        <v>1.000138651867333</v>
       </c>
       <c r="N6">
-        <v>1.0129850500743</v>
+        <v>1.014373043583948</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036241202361694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035838374108235</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021234913208022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007239665451753</v>
+        <v>1.007110707867127</v>
       </c>
       <c r="D7">
-        <v>1.025294553715715</v>
+        <v>1.0247633064517</v>
       </c>
       <c r="E7">
-        <v>1.012251689378326</v>
+        <v>1.012142640816275</v>
       </c>
       <c r="F7">
-        <v>0.9884560959236188</v>
+        <v>0.9883213878384207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046556715853047</v>
+        <v>1.046322105760181</v>
       </c>
       <c r="J7">
-        <v>1.026453951892476</v>
+        <v>1.026328228768312</v>
       </c>
       <c r="K7">
-        <v>1.035094085419031</v>
+        <v>1.034568867377404</v>
       </c>
       <c r="L7">
-        <v>1.022201509805573</v>
+        <v>1.022093737972858</v>
       </c>
       <c r="M7">
-        <v>0.9986928227436208</v>
+        <v>0.9985597878194715</v>
       </c>
       <c r="N7">
-        <v>1.012793456931932</v>
+        <v>1.014258740811663</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03590323134958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035542480989284</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021154542076317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00245246353066</v>
+        <v>1.002509867739734</v>
       </c>
       <c r="D8">
-        <v>1.022124515485356</v>
+        <v>1.021837230011252</v>
       </c>
       <c r="E8">
-        <v>1.008502465137086</v>
+        <v>1.008555843887918</v>
       </c>
       <c r="F8">
-        <v>0.9802705291208705</v>
+        <v>0.9803308704632639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045267673762701</v>
+        <v>1.045172199138428</v>
       </c>
       <c r="J8">
-        <v>1.023989763436527</v>
+        <v>1.024045513743261</v>
       </c>
       <c r="K8">
-        <v>1.033012909072425</v>
+        <v>1.032729308541186</v>
       </c>
       <c r="L8">
-        <v>1.019568483781248</v>
+        <v>1.019621154749843</v>
       </c>
       <c r="M8">
-        <v>0.9917245512113108</v>
+        <v>0.991784033114753</v>
       </c>
       <c r="N8">
-        <v>1.011971298135119</v>
+        <v>1.01370623073323</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034436244546504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034246804525239</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020798958851798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936359746709</v>
+        <v>0.9940221328085329</v>
       </c>
       <c r="D9">
-        <v>1.016303207088978</v>
+        <v>1.016454457220532</v>
       </c>
       <c r="E9">
-        <v>1.001641833280639</v>
+        <v>1.001980185343343</v>
       </c>
       <c r="F9">
-        <v>0.9650803471457134</v>
+        <v>0.9654914413412307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042804973415705</v>
+        <v>1.042956324345124</v>
       </c>
       <c r="J9">
-        <v>1.01941548209374</v>
+        <v>1.019787765461284</v>
       </c>
       <c r="K9">
-        <v>1.029137200142659</v>
+        <v>1.02928609639932</v>
       </c>
       <c r="L9">
-        <v>1.014708328930852</v>
+        <v>1.015041216912175</v>
       </c>
       <c r="M9">
-        <v>0.9787665731980199</v>
+        <v>0.9791703606449979</v>
       </c>
       <c r="N9">
-        <v>1.01044430431451</v>
+        <v>1.012586435174756</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031692631014803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031808726255768</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020109364477095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874880355695775</v>
+        <v>0.9881408073558937</v>
       </c>
       <c r="D10">
-        <v>1.012267082913728</v>
+        <v>1.012750511786483</v>
       </c>
       <c r="E10">
-        <v>0.9968911961585234</v>
+        <v>0.9974604224697307</v>
       </c>
       <c r="F10">
-        <v>0.9543745462337054</v>
+        <v>0.9550763061070354</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041035362989746</v>
+        <v>1.041376749440442</v>
       </c>
       <c r="J10">
-        <v>1.016207019734576</v>
+        <v>1.016832975906415</v>
       </c>
       <c r="K10">
-        <v>1.026418328241353</v>
+        <v>1.026893305769649</v>
       </c>
       <c r="L10">
-        <v>1.011316808799969</v>
+        <v>1.011875681664054</v>
       </c>
       <c r="M10">
-        <v>0.9696195223367913</v>
+        <v>0.9703069775851539</v>
       </c>
       <c r="N10">
-        <v>1.009374243207461</v>
+        <v>1.011920662900729</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029787123578772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030135465468381</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01961930796641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.984765094178303</v>
+        <v>0.9855868106777869</v>
       </c>
       <c r="D11">
-        <v>1.01049272930048</v>
+        <v>1.011159572368427</v>
       </c>
       <c r="E11">
-        <v>0.9947968364202865</v>
+        <v>0.9955134086503928</v>
       </c>
       <c r="F11">
-        <v>0.9495927649170035</v>
+        <v>0.9504802338080189</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040244067762434</v>
+        <v>1.040695504019265</v>
       </c>
       <c r="J11">
-        <v>1.014785690376078</v>
+        <v>1.015571735727135</v>
       </c>
       <c r="K11">
-        <v>1.025219444297814</v>
+        <v>1.025874060053299</v>
       </c>
       <c r="L11">
-        <v>1.009817548419259</v>
+        <v>1.010520434422798</v>
       </c>
       <c r="M11">
-        <v>0.9655322945214526</v>
+        <v>0.9664006085932587</v>
       </c>
       <c r="N11">
-        <v>1.00890172926199</v>
+        <v>1.01181654809567</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028972548707182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029451122610308</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019412278197954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9837368134845359</v>
+        <v>0.9846271894882306</v>
       </c>
       <c r="D12">
-        <v>1.009819185290906</v>
+        <v>1.010558642811469</v>
       </c>
       <c r="E12">
-        <v>0.9940064270570715</v>
+        <v>0.9947829881458861</v>
       </c>
       <c r="F12">
-        <v>0.9477851454033926</v>
+        <v>0.948748479812671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039940687767829</v>
+        <v>1.040436075646386</v>
       </c>
       <c r="J12">
-        <v>1.014245772751073</v>
+        <v>1.015096711043988</v>
       </c>
       <c r="K12">
-        <v>1.02476065244068</v>
+        <v>1.025486313583063</v>
       </c>
       <c r="L12">
-        <v>1.009249362410709</v>
+        <v>1.010010825077199</v>
       </c>
       <c r="M12">
-        <v>0.9639860646233196</v>
+        <v>0.9649281659457557</v>
       </c>
       <c r="N12">
-        <v>1.008721538532421</v>
+        <v>1.011792754559336</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028648162979182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029176975223464</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01933261412433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9839567942894056</v>
+        <v>0.9848322862439404</v>
       </c>
       <c r="D13">
-        <v>1.009962391115585</v>
+        <v>1.010686158451103</v>
       </c>
       <c r="E13">
-        <v>0.9941753042172132</v>
+        <v>0.9949388634628049</v>
       </c>
       <c r="F13">
-        <v>0.9481728691540443</v>
+        <v>0.9491197359892749</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040005147691764</v>
+        <v>1.040491030564742</v>
       </c>
       <c r="J13">
-        <v>1.014360831933605</v>
+        <v>1.015197711766604</v>
       </c>
       <c r="K13">
-        <v>1.024857782783703</v>
+        <v>1.025568096434832</v>
       </c>
       <c r="L13">
-        <v>1.009370541307669</v>
+        <v>1.010119311235831</v>
       </c>
       <c r="M13">
-        <v>0.9643175923197994</v>
+        <v>0.9652436824216032</v>
       </c>
       <c r="N13">
-        <v>1.00875979269535</v>
+        <v>1.01179683411436</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028714324423539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029232042017095</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019349272392584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9846798561000977</v>
+        <v>0.9855071728769753</v>
       </c>
       <c r="D14">
-        <v>1.010436516678893</v>
+        <v>1.011109307045719</v>
       </c>
       <c r="E14">
-        <v>0.9947312230501117</v>
+        <v>0.9954526891888326</v>
       </c>
       <c r="F14">
-        <v>0.9494433651761375</v>
+        <v>0.9503370127628775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040218731982569</v>
+        <v>1.040673763953682</v>
       </c>
       <c r="J14">
-        <v>1.014740744612203</v>
+        <v>1.015532086991298</v>
       </c>
       <c r="K14">
-        <v>1.025180977706199</v>
+        <v>1.025841413871891</v>
       </c>
       <c r="L14">
-        <v>1.009770289837772</v>
+        <v>1.010477955869349</v>
       </c>
       <c r="M14">
-        <v>0.9654044437000634</v>
+        <v>0.9662787694980961</v>
       </c>
       <c r="N14">
-        <v>1.008886667284311</v>
+        <v>1.011814118121356</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028944274259483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029426860253899</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019405509045856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9851260480790675</v>
+        <v>0.9859242400902307</v>
       </c>
       <c r="D15">
-        <v>1.01073089620471</v>
+        <v>1.011372691629868</v>
       </c>
       <c r="E15">
-        <v>0.9950747552353019</v>
+        <v>0.9957707730934336</v>
       </c>
       <c r="F15">
-        <v>0.950225106190934</v>
+        <v>0.9510866378206728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04035133692762</v>
+        <v>1.040787642061449</v>
       </c>
       <c r="J15">
-        <v>1.014976041527603</v>
+        <v>1.015739829011411</v>
       </c>
       <c r="K15">
-        <v>1.025382422263488</v>
+        <v>1.026012521687348</v>
       </c>
       <c r="L15">
-        <v>1.010017708146987</v>
+        <v>1.010700515690325</v>
       </c>
       <c r="M15">
-        <v>0.9660734282771869</v>
+        <v>0.9669165018460866</v>
       </c>
       <c r="N15">
-        <v>1.008965534106579</v>
+        <v>1.011827537714881</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029092625350327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029554329311453</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019440998787084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9876862169591882</v>
+        <v>0.9883275148111786</v>
       </c>
       <c r="D16">
-        <v>1.01241104946629</v>
+        <v>1.012882027958707</v>
       </c>
       <c r="E16">
-        <v>0.9970464710543423</v>
+        <v>0.997605625216043</v>
       </c>
       <c r="F16">
-        <v>0.954708876534583</v>
+        <v>0.9553980932465643</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041101870911748</v>
+        <v>1.041435762723494</v>
       </c>
       <c r="J16">
-        <v>1.016318674483442</v>
+        <v>1.016933727230924</v>
       </c>
       <c r="K16">
-        <v>1.026523746388589</v>
+        <v>1.026986518208194</v>
       </c>
       <c r="L16">
-        <v>1.011432422707599</v>
+        <v>1.011981440524621</v>
       </c>
       <c r="M16">
-        <v>0.9699077835128956</v>
+        <v>0.9705830058416461</v>
       </c>
       <c r="N16">
-        <v>1.009413805086494</v>
+        <v>1.011936568446154</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029902786624286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030246476558107</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019640914209062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9892726208601581</v>
+        <v>0.9898268255089112</v>
       </c>
       <c r="D17">
-        <v>1.013453612184899</v>
+        <v>1.013825924489391</v>
       </c>
       <c r="E17">
-        <v>0.9982704505325415</v>
+        <v>0.9987537791680073</v>
       </c>
       <c r="F17">
-        <v>0.9574780026231496</v>
+        <v>0.9580720766300316</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041563661093881</v>
+        <v>1.041839185758857</v>
       </c>
       <c r="J17">
-        <v>1.017149370949122</v>
+        <v>1.017681636348388</v>
       </c>
       <c r="K17">
-        <v>1.027229792382851</v>
+        <v>1.027595801463456</v>
       </c>
       <c r="L17">
-        <v>1.012308873127001</v>
+        <v>1.012783694489802</v>
       </c>
       <c r="M17">
-        <v>0.9722750681930914</v>
+        <v>0.9728574853793022</v>
       </c>
       <c r="N17">
-        <v>1.009691188796095</v>
+        <v>1.012040436598567</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03040460149667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030680119337102</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019765832112751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9901852406179282</v>
+        <v>0.9906933501791679</v>
       </c>
       <c r="D18">
-        <v>1.014049350621637</v>
+        <v>1.014367648979534</v>
       </c>
       <c r="E18">
-        <v>0.9989745539094166</v>
+        <v>0.9994178320000572</v>
       </c>
       <c r="F18">
-        <v>0.95907184701645</v>
+        <v>0.9596157073907094</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041825287422923</v>
+        <v>1.042069229986439</v>
       </c>
       <c r="J18">
-        <v>1.01762423519634</v>
+        <v>1.01811262149378</v>
       </c>
       <c r="K18">
-        <v>1.027629901930965</v>
+        <v>1.027942902540024</v>
       </c>
       <c r="L18">
-        <v>1.01281101139571</v>
+        <v>1.013246621994117</v>
       </c>
       <c r="M18">
-        <v>0.973636541891262</v>
+        <v>0.9741699435373442</v>
       </c>
       <c r="N18">
-        <v>1.009849032158578</v>
+        <v>1.012113140787565</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030675767888124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030912669533261</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019836145368505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9904997986512352</v>
+        <v>0.9909926956069317</v>
       </c>
       <c r="D19">
-        <v>1.01425828804279</v>
+        <v>1.014558524042976</v>
       </c>
       <c r="E19">
-        <v>0.9992179942569589</v>
+        <v>0.99964805048232</v>
       </c>
       <c r="F19">
-        <v>0.959617645522153</v>
+        <v>0.9601449604012161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041917473148433</v>
+        <v>1.042150897018147</v>
       </c>
       <c r="J19">
-        <v>1.01778982215601</v>
+        <v>1.018263715184714</v>
       </c>
       <c r="K19">
-        <v>1.027772112756938</v>
+        <v>1.028067380878638</v>
       </c>
       <c r="L19">
-        <v>1.012985623815397</v>
+        <v>1.013408285734346</v>
       </c>
       <c r="M19">
-        <v>0.9741033274442642</v>
+        <v>0.9746205716733353</v>
       </c>
       <c r="N19">
-        <v>1.009904647846949</v>
+        <v>1.012141923618461</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030782759010616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031007743691528</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01986200187302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9891026729841333</v>
+        <v>0.9896658007405484</v>
       </c>
       <c r="D20">
-        <v>1.013341520587256</v>
+        <v>1.013724106611733</v>
       </c>
       <c r="E20">
-        <v>0.9981391842997402</v>
+        <v>0.9986302769593075</v>
       </c>
       <c r="F20">
-        <v>0.9571819862425448</v>
+        <v>0.9577857909414792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041514093577692</v>
+        <v>1.041795662988554</v>
       </c>
       <c r="J20">
-        <v>1.017060229088795</v>
+        <v>1.017600984064227</v>
       </c>
       <c r="K20">
-        <v>1.027153763143704</v>
+        <v>1.027529851781155</v>
       </c>
       <c r="L20">
-        <v>1.012214833015713</v>
+        <v>1.012697254130468</v>
       </c>
       <c r="M20">
-        <v>0.9720219770458872</v>
+        <v>0.9726138901571805</v>
       </c>
       <c r="N20">
-        <v>1.009661364148383</v>
+        <v>1.012027708032825</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030349499523583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030632015179515</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019752251469936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9844734786676831</v>
+        <v>0.9853313035707186</v>
       </c>
       <c r="D21">
-        <v>1.010305918717404</v>
+        <v>1.01100530866305</v>
       </c>
       <c r="E21">
-        <v>0.9945733957787558</v>
+        <v>0.9953218553936404</v>
       </c>
       <c r="F21">
-        <v>0.949076686724896</v>
+        <v>0.9500036241357595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040160771196242</v>
+        <v>1.040633295929199</v>
       </c>
       <c r="J21">
-        <v>1.014635012887821</v>
+        <v>1.015455382118757</v>
       </c>
       <c r="K21">
-        <v>1.025094637900822</v>
+        <v>1.025781139268386</v>
       </c>
       <c r="L21">
-        <v>1.009658311361877</v>
+        <v>1.010392402000125</v>
       </c>
       <c r="M21">
-        <v>0.9650916045403081</v>
+        <v>0.9659984138637819</v>
       </c>
       <c r="N21">
-        <v>1.008852164025417</v>
+        <v>1.011876269588184</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028896854029614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029399180191968</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019395139496303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9814893469243794</v>
+        <v>0.9825367061974665</v>
       </c>
       <c r="D22">
-        <v>1.008348113501631</v>
+        <v>1.009251174298302</v>
       </c>
       <c r="E22">
-        <v>0.9922811645064765</v>
+        <v>0.9931950361133353</v>
       </c>
       <c r="F22">
-        <v>0.9438236018309532</v>
+        <v>0.9449612949628107</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039273881182841</v>
+        <v>1.039868731853211</v>
       </c>
       <c r="J22">
-        <v>1.01306405297188</v>
+        <v>1.014062987712132</v>
       </c>
       <c r="K22">
-        <v>1.023755987038725</v>
+        <v>1.02464156466846</v>
       </c>
       <c r="L22">
-        <v>1.008007099710283</v>
+        <v>1.008902516860338</v>
       </c>
       <c r="M22">
-        <v>0.9605965775460926</v>
+        <v>0.9617080421334829</v>
       </c>
       <c r="N22">
-        <v>1.008327101431417</v>
+        <v>1.011764306641877</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027936741665603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028578531950134</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019158647097427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9830702778889093</v>
+        <v>0.9840063016542824</v>
       </c>
       <c r="D23">
-        <v>1.009379151409959</v>
+        <v>1.010166414058388</v>
       </c>
       <c r="E23">
-        <v>0.9934937611728957</v>
+        <v>0.9943102564174923</v>
       </c>
       <c r="F23">
-        <v>0.9466150255587352</v>
+        <v>0.9476289225692118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039741227527043</v>
+        <v>1.04026564564613</v>
       </c>
       <c r="J23">
-        <v>1.013893506889668</v>
+        <v>1.014787536957101</v>
       </c>
       <c r="K23">
-        <v>1.024458505737085</v>
+        <v>1.025230917007178</v>
       </c>
       <c r="L23">
-        <v>1.008879390593674</v>
+        <v>1.009679830375469</v>
       </c>
       <c r="M23">
-        <v>0.9629843971597415</v>
+        <v>0.9639756457564295</v>
       </c>
       <c r="N23">
-        <v>1.008603348289327</v>
+        <v>1.011779828908274</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028423745396397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028984577522139</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019279442226023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9891671701767657</v>
+        <v>0.9897269574415949</v>
       </c>
       <c r="D24">
-        <v>1.01337457950357</v>
+        <v>1.013753094435123</v>
       </c>
       <c r="E24">
-        <v>0.9981873139366101</v>
+        <v>0.9986755447844889</v>
       </c>
       <c r="F24">
-        <v>0.9573025849014757</v>
+        <v>0.9579027348984277</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041526951375438</v>
+        <v>1.041806183525873</v>
       </c>
       <c r="J24">
-        <v>1.017088693761312</v>
+        <v>1.017626276283893</v>
       </c>
       <c r="K24">
-        <v>1.027170824106571</v>
+        <v>1.027542919553007</v>
       </c>
       <c r="L24">
-        <v>1.012246337329137</v>
+        <v>1.012725959331192</v>
       </c>
       <c r="M24">
-        <v>0.9721234336399716</v>
+        <v>0.9727117833103577</v>
       </c>
       <c r="N24">
-        <v>1.00966934484818</v>
+        <v>1.012029298848073</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030333952975115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030610975489719</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019753243191999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9959743421228503</v>
+        <v>0.9962637981666684</v>
       </c>
       <c r="D25">
-        <v>1.017853860030103</v>
+        <v>1.017882283999906</v>
       </c>
       <c r="E25">
-        <v>1.003457572875484</v>
+        <v>1.003712003221624</v>
       </c>
       <c r="F25">
-        <v>0.9691177303094406</v>
+        <v>0.9694248029501683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043474063414606</v>
+        <v>1.043555319358823</v>
       </c>
       <c r="J25">
-        <v>1.02063794939781</v>
+        <v>1.020917557957557</v>
       </c>
       <c r="K25">
-        <v>1.030181198738638</v>
+        <v>1.0302092009379</v>
       </c>
       <c r="L25">
-        <v>1.016002450552332</v>
+        <v>1.016252967128629</v>
       </c>
       <c r="M25">
-        <v>0.9822151504923539</v>
+        <v>0.9825170585619443</v>
       </c>
       <c r="N25">
-        <v>1.010853841730895</v>
+        <v>1.012854262367838</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032459588107282</v>
+        <v>1.032493001927316</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020297873228963</v>
       </c>
     </row>
   </sheetData>
